--- a/test-data/login-data.xlsx
+++ b/test-data/login-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen kumar\eclipse-workspace\Testprg\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen kumar\git\code2\Testprg\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904BAC4-6816-4323-9B11-0B961469832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56526D5-0150-492A-BB61-019963A119A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,6 +414,9 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{CFF7855D-1F5B-4EC0-A02A-C1A2F517B746}"/>

--- a/test-data/login-data.xlsx
+++ b/test-data/login-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen kumar\git\code2\Testprg\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56526D5-0150-492A-BB61-019963A119A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E92722E-3136-4C71-8EE0-287B0845537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>9095133370</v>
+      </c>
+      <c r="B4">
+        <v>9095133370</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
